--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E6C045-345F-4B39-9E76-8553ABD02B25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BEA3DA-8339-4D79-8B4A-32F0A64DA5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{BC81F806-C5CD-409D-89A6-D5207D49E999}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{BC81F806-C5CD-409D-89A6-D5207D49E999}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,16 +414,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,7 +476,7 @@
         <v>0.94395870816692184</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -501,7 +502,7 @@
         <v>0.69533226868970233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -527,7 +528,7 @@
         <v>0.61501284248473453</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -553,7 +554,7 @@
         <v>1.491628939938447</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -579,7 +580,7 @@
         <v>0.19580540678539149</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -616,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -628,7 +629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E33B32-CA68-472F-A5C0-8EF91281F9F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5CC981-3B6D-43D6-A835-8D34C2076900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{3CDD97EC-6A48-4959-A873-8A1BF45A556D}"/>
   </bookViews>

--- a/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs/figure1_zMIs_AD_15_RANOVA_multcompare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B5CC981-3B6D-43D6-A835-8D34C2076900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB827B2-1542-46D4-9E3C-03EF350FB979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{3CDD97EC-6A48-4959-A873-8A1BF45A556D}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{3CDD97EC-6A48-4959-A873-8A1BF45A556D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
